--- a/StrEmailMonitoring.Tests/Inputs/str_emails_recipients.xlsx
+++ b/StrEmailMonitoring.Tests/Inputs/str_emails_recipients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sandbox\StrEmailMonitoring\StrEmailMonitoring.Tests\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A869DC-46D8-4AEE-B116-CB6F36E0ADAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC9A8C5-9122-49EC-88E7-E864D3EAA6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Email</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Edna</t>
-  </si>
-  <si>
-    <t>JDE,AVI,PQP,RAC,MMC,HAP,RNK,FTO,JDW,JQC</t>
   </si>
   <si>
     <t>ignacio.adrian@bdo.com.ph</t>
@@ -660,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -898,16 +895,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
